--- a/Bratysława_miejsca_odnosniki.xlsx
+++ b/Bratysława_miejsca_odnosniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\PODRÓŻE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF51E69-1ACF-47AC-BB79-1E69EB3C7653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D743B879-0036-4A18-B3D9-18382BCCC3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="235">
   <si>
     <t>Miejsce</t>
   </si>
@@ -58,6 +58,9 @@
     <t>info</t>
   </si>
   <si>
+    <t>summ</t>
+  </si>
+  <si>
     <t>Bratislava Castle</t>
   </si>
   <si>
@@ -151,15 +154,6 @@
     <t>Bratislava Local Craft Brewery</t>
   </si>
   <si>
-    <t>Konditorei Kurmu</t>
-  </si>
-  <si>
-    <t>Stary Ratusz</t>
-  </si>
-  <si>
-    <t>Meanto</t>
-  </si>
-  <si>
     <t>['https://www.youtube.com/watch?v=Xz5EEEFf-sU', 'https://www.youtube.com/watch?v=iWZLpasY7o8', 'https://www.youtube.com/watch?v=kf45HNJlXKg', 'https://www.youtube.com/watch?v=B8JRx2TFvhs', 'https://www.youtube.com/watch?v=Ga6LDEdQO3w', 'https://www.youtube.com/watch?v=qxoks0PApNM', 'https://www.youtube.com/watch?v=mi5vq-3mxXc', 'https://www.youtube.com/watch?v=wZTQdRgfAX8', 'https://www.youtube.com/watch?v=QzPWsZ4f8XY']</t>
   </si>
   <si>
@@ -220,15 +214,6 @@
     <t>['https://www.youtube.com/watch?v=Ga6LDEdQO3w']</t>
   </si>
   <si>
-    <t>['https://www.youtube.com/watch?v=k42L1aiY_Fs']</t>
-  </si>
-  <si>
-    <t>['https://www.youtube.com/watch?v=iWZLpasY7o8', 'https://www.youtube.com/watch?v=B8JRx2TFvhs']</t>
-  </si>
-  <si>
-    <t>['https://www.youtube.com/watch?v=fCGP4iTz8lo']</t>
-  </si>
-  <si>
     <t>Zamek Bratysławski</t>
   </si>
   <si>
@@ -310,12 +295,6 @@
     <t>Mešuge Craft Beer Pub</t>
   </si>
   <si>
-    <t>Kormuth Confectionery</t>
-  </si>
-  <si>
-    <t>Stary ratusz w Bratysławie J</t>
-  </si>
-  <si>
     <t>Hrad, 811 06 Bratislava, Słowacja</t>
   </si>
   <si>
@@ -409,15 +388,6 @@
     <t>Vysoká 15, 811 06 Bratislava, Słowacja</t>
   </si>
   <si>
-    <t>Sedlárska 363, 811 01 Bratislava, Słowacja</t>
-  </si>
-  <si>
-    <t>Hlavné námestie 501/1, 811 01 Staré Mesto, Słowacja</t>
-  </si>
-  <si>
-    <t>Biela 4, 811 01 Bratislava, Słowacja</t>
-  </si>
-  <si>
     <t>Zamek</t>
   </si>
   <si>
@@ -478,58 +448,173 @@
     <t>Pub</t>
   </si>
   <si>
-    <t>Cukiernia</t>
-  </si>
-  <si>
-    <t>Ratusz</t>
-  </si>
-  <si>
-    <t>Położony na szczycie wzgórza zrekonstruowany barokowy zamek sięgający początkami 907 r. oraz muzeum narodowe.</t>
-  </si>
-  <si>
-    <t>Rozległe centrum handlowe z prawie 200 sklepami, kilkoma strefami zabaw dla dzieci i licznymi restauracjami.</t>
-  </si>
-  <si>
-    <t>Częściowo zrekonstruowany średniowieczny zamek z widokiem na Dunaj i Morawę.</t>
-  </si>
-  <si>
-    <t>Stanowiąca pozostałość po XIV-wiecznych murach obronnych miasta brama wjazdowa z muzeum broni i widokami.</t>
-  </si>
-  <si>
-    <t>Wykonana z brązu rzeźba kanalarza, który wychyla się ze studzienki kanalizacyjnej i obserwuje przechodniów.</t>
-  </si>
-  <si>
-    <t>Efektowny błękitny kościół z początku XX wieku zaprojektowany w stylu secesyjnym.</t>
-  </si>
-  <si>
-    <t>Malownicze widoki ze wzgórza z pomnikiem i cmentarzem żołnierzy Armii Radzieckiej, którzy zginęli podczas II wojny światowej.</t>
-  </si>
-  <si>
-    <t>Wieża zwieńczona „latającym spodkiem” z tarasem obserwacyjnym i restauracją z panoramicznymi widokami.</t>
-  </si>
-  <si>
-    <t>Przestronna restauracja w bogato zdobionym starym teatrze serwująca tradycyjne dania słowackie i warzone na miejscu piwo.</t>
-  </si>
-  <si>
-    <t>XIII-wieczna gotycko-romańska katedra katolicka z czterema kaplicami i trzema nawami, w których odbywały się koronacje.</t>
-  </si>
-  <si>
-    <t>Malowniczo położone naddunajskie muzeum, w którym można podziwiać wystawy sztuki nowoczesnej i ogrody rzeźb.</t>
-  </si>
-  <si>
-    <t>Elegancki pałac z 1781 r. z gobelinami i posągami, obecnie mieści salę koncertową oraz siedzibę burmistrza.</t>
-  </si>
-  <si>
-    <t>Pałac prezydencki z wypielęgnowanymi ogrodami i fontanną zdobioną dużą rzeźbą przedstawiającą kulę ziemską.</t>
-  </si>
-  <si>
-    <t>Odrestaurowana hala targowo-kulturalna z 1910 roku, w której odbywają się targi z produktami rolnymi i jedzeniem ulicznym.</t>
-  </si>
-  <si>
-    <t>Przecinający Dunaj most z linią tramwajową, osobnymi pasami dla pieszych i rowerów oraz widokiem na Stare Miasto.</t>
-  </si>
-  <si>
-    <t>Muzeum w kompleksie starego ratusza z wystawami na temat historii Bratysławy.</t>
+    <t>Położony na szczycie wzgórza zrekonstruowany barokowy zamek sięgający początkami 907 r. oraz muzeum narodowe.Zamek Bratysławski, also known as Bratislava Castle, is located in the capital of Slovakia, on a hill overlooking the Danube River. This strategic location provides views of Austria and, on clear days, parts of Hungary, which makes it a significant historic site in central Europe.
+The castle's history dates back to the Stone and Bronze ages, but the structure itself was primarily developed during the 9th through 18th centuries. The site has Roman roots and was part of the Limes Romanus, a line of fortifications along the Danube. Throughout the centuries, the castle served as a central part of the Great Moravian Empire, and later became a key royal seat for the Kingdom of Hungary.
+The architecture of Bratislava Castle has evolved over the years. Its appearance as a rectangular building with four corner towers, most of which survives to this day, was shaped during the reign of Sigismund of Luxembourg in the 15th century. Later, in the 16th century, King Ferdinand ordered the reconstruction of the castle into a Renaissance-style palace. The castle was further modified in the Baroque style in the 18th century.
+An important feature of Bratislava Castle is the Crown Tower, one of the oldest parts of the castle, known for housing the crown jewels of Hungary during several periods in history.
+In 1811, a major fire damaged the structure and left it in ruins. The castle underwent a restoration phase in the 20th century, being rebuilt mostly in the 1950s and 1960s. Today, it houses collections of the Slovak National Museum, displaying historical exhibitions, including furniture, art, and artifacts that illustrate the history of Slovakia.
+Besides being a museum, the castle serves as a venue for cultural events and government ceremonies, and its hilltop position offers one of the best vantage points for viewing the city of Bratislava and the surrounding regions.</t>
+  </si>
+  <si>
+    <t>Rozległe centrum handlowe z prawie 200 sklepami, kilkoma strefami zabaw dla dzieci i licznymi restauracjami.Eurovea is a multifunctional complex located in Bratislava, the capital of Slovakia. It is situated on the banks of the Danube River near the city center, providing a scenic and accessible location for visitors and locals alike. The coordinates you provided, 48.1403215, 17.121313, pinpoint its location in the city.
+Opened in 2010, Eurovea serves as a modern urban space combining residential areas, office spaces, and a large shopping center. The shopping center is a key component of the complex and features a broad range of retail outlets, including international brands and local shops. It provides a variety of services from fashion and beauty stores to electronics and home goods.
+Eurovea also includes a significant entertainment component, with numerous restaurants, cafes, and bars, as well as a cinema and fitness center. This has made it a popular destination not only for shopping but also for leisure and socializing. The complex is designed with open spaces and includes a promenade along the river, which hosts various events and activities throughout the year.
+Given its modern architecture and emphasis on creating a blend of commercial, residential, and leisure spaces, Eurovea stands out as an important urban development in Bratislava. It has helped to revitalize the waterfront area, making it a lively district and contributing to the city's economic and cultural life.</t>
+  </si>
+  <si>
+    <t>Częściowo zrekonstruowany średniowieczny zamek z widokiem na Dunaj i Morawę.Zamek Devín, or Devín Castle, is a historic castle located near Bratislava, the capital city of Slovakia. Positioned at the confluence of the Danube and Morava rivers, the site of Devín Castle holds strategic significance and offers panoramic views of the surrounding area, making it a crucial military and trade site throughout history.
+The castle stands on a massive rocky hill and has been a site of human settlement and fortification since the late Stone Age. Its strategic location made it a central point in the region during the Roman Empire, which used it as a military outpost and boundary fortification on the Limes Romanus, marking the frontier of the Roman Empire.
+Throughout the centuries, Devín Castle played a crucial role in the history of Slovakia. The castle was part of the Great Moravian Empire, which was the first significant state formation in the area. It is believed that the castle witnessed significant historical events, including the baptism of St. Cyril and St. Methodius, the Byzantine missionaries who introduced Christianity and the Cyrillic script.
+In the medieval period, the castle was expanded and transformed into a stone castle. It changed hands among various noble families and played a key role in regional defense. One of the important historical aspects of the castle relates to its role in the 9th century when it was a prominent administrative and military center.
+Devín Castle was further enlarged and fortified during the 15th and 16th centuries. However, it faced destruction in 1809 during the Napoleonic Wars when retreating French troops blew up the castle, leading to its present ruinous state.
+Today, Devín Castle is a popular tourist destination and a national cultural monument. It is accessible to the public, offering museum exhibits that focus on its history and archaeological findings from the site. The castle hosts various cultural events, including medieval reenactments and concerts. The ruins still reflect the grandeur of what was once a formidable fortress and provide insight into various architectural styles that evolved over the centuries.
+The site also holds a symbolic significance in Slovak national history, embodying themes of resilience and sovereignty. It has become a symbol of national pride and a reminder of Slovakia's rich historical tapestry.</t>
+  </si>
+  <si>
+    <t>Stanowiąca pozostałość po XIV-wiecznych murach obronnych miasta brama wjazdowa z muzeum broni i widokami.Brama Michalska, known in Polish as "Michałska brama," and in Slovak as "Michalská brána," is one of the city gates of Bratislava, the capital of Slovakia. Historically, this gate played a crucial role in the fortifications of the medieval city. It is located in the historic center of Bratislava and is the only city gate that has been preserved from the medieval fortifications, making it a significant historical monument.
+Dating back to the 14th century, Brama Michalska has undergone several renovations and restorations over the centuries. The tower associated with the gate, often referred to as Michael's Tower (Veža Michalskej brány), is a dominant feature in the Old Town's skyline. The tower was reconstructed in a baroque style in the 18th century and features a distinctive copper roof.
+The gate was named after Saint Michael, the patron saint of soldiers and archangels, which underscores its historical military significance. Today, Michael's Tower houses a museum, the Museum of Weapons, which exhibits medieval fortification devices, arms, and municipal defenses. The tower also offers a viewing platform at the top, providing visitors with panoramic views of Bratislava's Old Town and the surrounding area.
+The Michalska brana area is a vibrant part of Bratislava, lined with cobblestone streets, quaint shops, and cafés, making it a popular spot for both locals and tourists. The historical and architectural significance of Brama Michalska, combined with its role in the city’s cultural life, makes it a notable landmark in Bratislava.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Slovak Pub (Slovenský Pub) is a well-known restaurant located in Bratislava, the capital of Slovakia. Situated at Obchodná 62, this establishment is popular among both locals and tourists for offering a traditional Slovak dining experience.
+The Slovak Pub is celebrated for its cozy and authentic atmosphere, which reflects the country's cultural heritage. The interior is often adorned with folkloric decorations and historical items, providing a unique and inviting ambiance.
+The menu at Slovak Pub features a variety of traditional Slovak dishes. Common items include hearty soups, stews, and meat dishes like roasted pork, schnitzels, and sausages. The restaurant also offers a selection of Slovak beers and wines, allowing patrons to enjoy local beverages.
+In addition to its regular menu, Slovak Pub is known for its commitment to sustainability and local sourcing. It tends to use locally sourced ingredients, emphasizing the importance of supporting local farmers and producers.
+Slovak Pub's location in the heart of Bratislava makes it easily accessible and a convenient dining choice for those exploring the city's historical and cultural sites. Its proximity to various landmarks and attractions adds to its appeal for visitors looking to experience traditional Slovak cuisine.</t>
+  </si>
+  <si>
+    <t>Wykonana z brązu rzeźba kanalarza, który wychyla się ze studzienki kanalizacyjnej i obserwuje przechodniów.Čumil is an iconic bronze statue and a popular tourist attraction in Bratislava, the capital of Slovakia. It depicts a man peeking out from under a manhole cover on the roadside, and is located at the intersection of Laurinská and Panská streets in Bratislava's Old Town. The statue's playful and unusual pose has made it a favorite spot for photographs among tourists.
+The name "Čumil" loosely translates to "The Watcher," or can be understood as "the one who peeks" in Slovak. Created by Slovak sculptor Viktor Hulík and installed in 1997, Čumil is often interpreted in various ways: some say he is simply resting, others believe he might be a sewer worker looking out into the world, and a more humorous interpretation suggests that he might be looking up women’s skirts.
+Due to its low position close to the ground and near a road, there have been concerns about the safety of the statue and the traffic around it. Consequently, a street sign warning "Man at Work" has been placed nearby to alert drivers and prevent accidents.
+Čumil has become one of Bratislava’s most beloved and recognized symbols, contributing to the quirky and charming atmosphere of the city’s old historical center.</t>
+  </si>
+  <si>
+    <t>Efektowny błękitny kościół z początku XX wieku zaprojektowany w stylu secesyjnym.As of my last update, there is no specific church known as "Kościół św. Elżbiety" (Church of St. Elizabeth) listed as a Catholic church in Bratislava with the coordinates (48.1433128, 17.1167367). It seems there might be some confusion or error in the provided details.
+In Bratislava, one notably relevant church is the Church of St. Elizabeth, commonly known as the Blue Church due to its distinctive blue coloration. The Blue Church is actually a Hungarian Secessionist Catholic church located at Bezručova 2, 81109 Staré Mesto, Slovakia. This church is famous for its unique Art Nouveau architecture and light blue facade, designed by Hungarian architect Ödön Lechner in the early 20th century. The church’s full official name is the Church of St. Elizabeth of the House of Árpád, but it is not located at the coordinates provided in your query.
+If you are looking for a specific church at the given coordinates (48.1433128, 17.1167367), please verify the name or any additional details you might have, and I can provide more precise information based on that.</t>
+  </si>
+  <si>
+    <t>Malownicze widoki ze wzgórza z pomnikiem i cmentarzem żołnierzy Armii Radzieckiej, którzy zginęli podczas II wojny światowej.Slavín is a war memorial and military cemetery located in Bratislava, the capital of Slovakia. It is situated on a hill overlooking the city and serves as the burial ground and monument commemorating Soviet Army soldiers who fell during the liberation of Bratislava towards the end of World War II.
+The memorial was designed by architect Ján Svetlík and was constructed between 1957 and 1960. It was officially opened on April 3, 1960, coinciding with the 15th anniversary of the city's liberation. The entire complex is a national cultural monument and is one of the most prominent features of Bratislava's skyline.
+Slavín consists of several components:
+1. **Central Monument**: At the center of the memorial complex stands a massive obelisk about 39.5 meters (130 feet) high topped with a large sculpture of a Soviet soldier, made by sculptor Alexander Trizuljak. The soldier is depicted holding a flag and crushing a swastika underfoot, symbolizing the defeat of Nazism.
+2. **Graves and Crypts**: The site contains the graves of approximately 6,845 Soviet soldiers who died during the battles in and around Bratislava in April 1945. These graves are arranged in six mass graves and individual graves, each marked with a stone slab inscribed with the names of the soldiers.
+3. **Ceremonial Stairs and Terrace**: A grand staircase leads up to the monument, flanked by terraces, which makes it a popular site for visitors offering panoramic views of the city.
+4. **Relief Wall and Inscriptions**: The walls around the central monument feature reliefs and inscriptions that detail the Soviet liberation efforts and honor the soldiers' sacrifices.
+Slavín is not only a significant historical site but also a public space that hosts various commemorative events, especially around May 9, the day marking the victory over Nazi Germany. It is a place of solemnity and remembrance but also serves as a park and leisure area for the residents and tourists of Bratislava.</t>
+  </si>
+  <si>
+    <t>Wieża zwieńczona „latającym spodkiem” z tarasem obserwacyjnym i restauracją z panoramicznymi widokami.Most SNP, often referred to as the UFO Tower, is a remarkable and iconic bridge in Bratislava, the capital of Slovakia. Officially named Most Slovenského národného povstania (Bridge of the Slovak National Uprising), it is more commonly known by its abbreviation, Most SNP, or simply as the UFO Bridge due to its futuristic design featuring a flying saucer-shaped structure atop its pylon.
+Here are some details about Most SNP:
+1. **Location and Construction**: The bridge spans the Danube River, connecting the Petržalka borough with the rest of Bratislava. Its construction began in 1967 and was completed in 1972. It was designed during the era of Communist rule in Czechoslovakia and reflects the architectural and aesthetic ideals of that period.
+2. **Design and Features**: The bridge is a cable-stayed bridge with an asymmetrical design. The total length of the bridge is approximately 430 meters, and it features a single pylon standing at about 84.6 meters high. Atop this pylon is an observation deck and a restaurant, resembling a flying saucer, which provides panoramic views of Bratislava and the Danube. This is why it is often called the UFO Tower.
+3. **Observation Deck and Restaurant**: The UFO structure at the top includes a restaurant known for its unique location and views, as well as an observation deck that tourists can visit. The deck offers a 360-degree view and is a popular spot for both locals and visitors looking to get a comprehensive view of the city.
+4. **Significance and Reception**: The bridge was a technological achievement at the time of its construction and has since become one of the symbols of Bratislava. However, its construction also led to the demolition of a large part of the city’s Jewish quarter, including a significant synagogue, which was a point of contention and remains a sensitive aspect of its history.
+5. **Accessibility**: The UFO Tower is easily accessible from both sides of the river and is a must-visit for tourists for its architectural uniqueness and the views it offers.
+Most SNP remains a feat of engineering and a distinctive part of Bratislava’s skyline, reflecting both the historical and modern aspects of the city. Whether admired for its bold design or visited for the panoramic views it offers, the UFO Tower is a central part of experiencing Bratislava’s urban culture.</t>
+  </si>
+  <si>
+    <t>Przestronna restauracja w bogato zdobionym starym teatrze serwująca tradycyjne dania słowackie i warzone na miejscu piwo.Bratislava Flagship Restauracja is an expansive restaurant located in an ornate old theater in Bratislava, Slovakia at the address Námestie SNP 8, 811 02. The restaurant serves traditional Slovak fare and house-brewed beers. It is known to be one of the largest restaurants in Europe. The restaurant is open from 11:00 AM to 10:00 PM on weekdays, 12:00 PM to 11:00 PM on Saturdays, and 12:00 PM to 10:00 PM on Sundays. The contact number is +421 917 927 673. The menu can be found on their website: bratislavskarestauracia.sk. The restaurant is highly rated by patrons, with a score of 4 for food, service, and value, and 4.5 for atmosphere on Tripadvisor. The restaurant also boasts a special brewing process for their Kláštorný lager of the Pilsen type, which matures for 28 days in original monastery cellars. The upper monumental spaces of the restaurant are located within the former Mercy Brothers' monastery.</t>
+  </si>
+  <si>
+    <t>XIII-wieczna gotycko-romańska katedra katolicka z czterema kaplicami i trzema nawami, w których odbywały się koronacje.The Katedra św. Marcina in Bratysława, or St. Martin's Cathedral, is a significant Roman Catholic church located in Bratislava, Slovakia. This cathedral is historically important as it was the coronation church of the Kingdom of Hungary between 1563 and 1830. Approximately 19 Hungarian kings and queens were crowned within its walls.
+The cathedral's full name is The Cathedral of St. Martin and construction of the original building likely began in the 13th century, in the Romanesque style, but it was completed in the Gothic style in the 15th century after several phases of construction and reconstructions following damages, particularly from earthquakes. It stands out with its impressive 85-meter high spire.
+An interesting feature of the cathedral is the replica of the Hungarian Royal Crown perched on the top of its spire, symbolizing its historical role in the coronations. Inside, the cathedral houses many artistic and historically valuable works including altarpieces, paintings, and statues.
+Moreover, St. Martin's Cathedral is also famous for its impressive and extensive crypts, where numerous notable historical figures are buried. The interior is adorned with baroque elements added during later renovations. It is located in the heart of Bratislava's old town, making it a central landmark and a popular destination for both worshipers and tourists.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bratislavský Meštiansky Pivovar, often simply referred to as Meštiansky pivovar, is a popular brewery and restaurant located in Bratislava, the capital city of Slovakia. It is known for brewing and serving its own beers, as well as offering a rich menu of local Slovak cuisine. The brewery emphasizes traditional brewing techniques while also incorporating modern technologies to enhance the quality and flavors of their beers.
+The location of Bratislavský Meštiansky Pivovar, based on the coordinates provided (48.1459197, 17.1177105), places it in the central part of Bratislava, making it easily accessible for both locals and tourists. This central positioning contributes to its popularity, making it a frequently visited spot for those looking to enjoy quality craft beers and traditional Slovak food.
+The brewery often features a selection of different beer types, ranging from light lagers to darker ales, each brewed on-site with attention to detail and quality. The ambiance of Bratislavský Meštiansky Pivovar typically combines traditional Slovak elements with the comfort of modern design, providing a welcoming environment for dining and social gatherings.
+As a place that celebrates the brewing culture of Slovakia, Bratislavský Meštiansky Pivovar also plays a role in the local community by participating in and hosting beer festivals and events that attract beer enthusiasts from across the region and beyond.
+While specific details about the founding or history of the brewery might require further specifics or direct inquiry with the establishment, it is clear that Bratislavský Meštiansky Pivovar holds a significant place in Bratislava’s culinary and brewing landscape.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marketplace Miletičova, also known as Miletičova Market, is a well-known outdoor fresh produce market located in Bratislava, the capital of Slovakia. This market is renowned for offering a wide variety of fresh fruits, vegetables, herbs, and other food products. It serves as a popular spot for locals to purchase fresh, quality produce directly from farmers and vendors.
+Located in the eastern part of Bratislava, near the city center, the market is accessible and frequented by both locals and visitors. It typically features stalls lined up in rows, each offering different types of goods, which might include dairy products, baked goods, meats, and flowers, in addition to the fresh produce. The market is known for its vibrant atmosphere and the diversity of products available.
+Miletičova Market is not only a place for buying groceries but also serves as a cultural spot where people from various backgrounds come together, making it a lively and interactive environment. Shopping here also supports local farmers and small businesses, contributing to the local economy.
+The exact positioning of the market can help in identifying its convenience and accessibility, which are important aspects for such a local hub. Its location at the coordinates (48.1532845, 17.1372092) places it in an urban area, likely surrounded by other commercial activities and residential neighborhoods, adding to its appeal as a central and essential spot for everyday shopping needs in Bratislava.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Słowacki Teatr Narodowy, actually referred to more commonly as the Slovak National Theatre, is located in Bratislava, Slovakia. The coordinates provided, 48.1411094, 17.1234302, specifically point to its location in the capital city. The Slovak National Theatre is a major cultural institution in Slovakia, known for its rich programming in opera, ballet, and drama.
+The theatre has two buildings: the historical building and the new building. The historical building, also known as the Old Building, is an architectural gem in neo-Renaissance style, inaugurated in 1886. It was originally named after the Hungarian composer Ferenc Erkel as it was built during a period when the now Slovak Republic was a part of the Austro-Hungarian Empire. This building is situated in Hviezdoslav Square in downtown Bratislava and is a prominent landmark.
+In 2007, a modern venue, known as the New Building, was opened to accommodate the growing demand for performances, situated on the left bank of the Danube. This contemporary structure is equipped with advanced technology to support various large-scale productions.
+The Slovak National Theatre serves as a center of artistic excellence, promoting Slovak culture while also embracing international collaborations. The institution frequently participates in prestigious international festivals and its productions often feature both local and globally renowned artists. The theatre remains a crucial part of Slovakia's cultural scene, contributing significantly to its artistic landscape.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Urban House is a trendy restaurant located at Laurinská 213/14, ground floor, 811 01 Bratislava, Slovakia. It operates from 9 AM to 12 AM on most days, with extended hours until 2 AM on Fridays and Saturdays. Visitors usually spend about 1-2 hours at the restaurant, which is known for its cool interior, heavenly desserts, and spacious setting with communal tables. The restaurant also offers outdoor seating. Urban House provides a minimal food selection but is noted for its delicious desserts. It also offers gluten-free options and is gay-friendly. It is ranked 31 out of 1241 restaurants in Bratislava on Tripadvisor, with a rating of 4 out of 5. You can contact the restaurant at +421 911 755 205.</t>
+  </si>
+  <si>
+    <t>Malowniczo położone naddunajskie muzeum, w którym można podziwiać wystawy sztuki nowoczesnej i ogrody rzeźb.The Danubiana Meulensteen Art Museum is a modern art museum located near Bratislava, Slovakia. It is situated on the Danube River, which provides a picturesque setting for the museum. More specifically, the museum is situated on the Čunovo Waterworks peninsula, making it one of the most uniquely located modern art museums in Europe. 
+The museum was founded by the Dutch collector and art patron Gerard Meulensteen and the Slovak gallerist Vincent Polakovič. It officially opened to the public on September 9, 2000. Their aim was to create a vibrant space for contemporary art that connects Slovak art with the global scene.
+The architecture of the museum itself is notable, designed to resemble the shape of a Roman galley anchored on the riverbank. This design choice is both aesthetically pleasing and symbolic, reinforcing the museum's connection to its riverside location.
+The collection includes works from Slovak as well as international artists, encompassing a range of styles and media. The museum also frequently hosts temporary exhibitions showcasing both established and emerging artists, making it a dynamic hub for contemporary art and culture.
+The Danubiana Meulensteen Art Museum is also recognized for its beautiful sculpture park surrounding the museum, which features a variety of sculptures and installations set against the backdrop of the river and surrounding landscape.
+Additionally, the museum offers various educational programs, workshops, and cultural events, aiming to engage the public and foster a deeper appreciation for contemporary art. 
+As of the last available information, the museum continues to be a significant cultural landmark in Slovakia and a key point of interest for visitors to the Bratislava region.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gatto Matto Panská is a highly-rated restaurant located at Panská 17, 811 01 Staré Mesto, Slovakia. It typically opens at 11 AM but is closed on certain holidays, including Labour Day. You can contact the restaurant at +421 911 131 233. The restaurant is known for its great atmosphere, friendly staff, and well-priced food and wine. It offers various dishes, including gluten-free and vegan options. The restaurant is rated 4.5 out of 5 on Tripadvisor and ranked 5th out of 1241 restaurants in Bratislava. For more information, you can check their website or Facebook page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reštaurácia Divný Janko is a restaurant located in Bratislava, the capital city of Slovakia. It provides a selection of traditional Slovak cuisine, which typically features hearty dishes that are characteristic of Central European culinary traditions. The restaurant's menu likely includes items such as soups, stews, meat dishes (especially pork and chicken), and might offer local specialties like bryndzové halušky, which is a traditional Slovak dish made from potato dumplings, sheep cheese, and bacon.
+The exact address and detailed reviews or specific menu offerings for Reštaurácia Divný Janko would require further specific lookup as of my last training data in 2023. It would offer a genuine taste of Slovak food culture, possibly in a setting that reflects local traditions and hospitality. However, for the most accurate and current details, including opening hours, menu specifics, and customer reviews, checking platforms like TripAdvisor or Google Reviews would be advisable.</t>
+  </si>
+  <si>
+    <t>Elegancki pałac z 1781 r. z gobelinami i posągami, obecnie mieści salę koncertową oraz siedzibę burmistrza.The Primate's Palace, also known as Pałac Prymasowski w Bratysławie, is a neoclassical palace located in the Old Town of Bratislava, Slovakia. It was built between 1778 and 1781 for Archbishop József Batthyány, based on the design of architect Melchior Hefele. The building is identifiable by its powder-pink color and its 150kg cast iron cardinal's hat. Today, the palace serves as the Mayor's seat and is considered one of the most beautiful places in Bratislava. It is associated with many legends and provides excellent views of Bratislava, Austria, and parts of Hungary in clear weather. The Primate's Palace is located at Primaciálne námestie 2, 811 01 Bratislava, Slovakia, and is generally open from 10 AM, closed on Mondays, with varying hours on holidays.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Kamzík TV Tower (Wieża telewizyjna Kamzík), officially known as the Bratislava Television Tower, is located on the hill of Kamzík in Bratislava, the capital of Slovakia. This tower is not just a significant broadcast facility but also a tourist attraction, thanks to its unique architecture and the amenities it offers.
+Constructed between 1975 and 1985, the tower stands approximately 196 meters tall. Its primary function is broadcasting, but it is also equipped with an observation deck and a restaurant, which are major draws for both locals and tourists. The observation deck provides panoramic views of Bratislava and the surrounding areas, including parts of Austria and Hungary on clear days.
+The restaurant in the tower is situated at a height that allows diners to enjoy spectacular views while they eat. This combination of culinary experience with scenic views makes it a popular spot for special occasions or simply as a tourist stop.
+The location of the tower, Kamzík Hill, is part of the Little Carpathians (Malé Karpaty), and is a beloved recreational area. It offers numerous hiking, running, and biking trails, hence adding to the reasons visitors choose to head up to the tower.
+The tower’s design and functionality reflect the era of its construction, embodying the typical architectural and technological ambitions of the late 20th century in Central Europe. Its presence on the Bratislava skyline makes it an important landmark and symbol of the city’s broadcast capabilities and cultural tourism.</t>
+  </si>
+  <si>
+    <t>Pałac prezydencki z wypielęgnowanymi ogrodami i fontanną zdobioną dużą rzeźbą przedstawiającą kulę ziemską.Pałac Prezydencki w Bratysławie, also known as the Grassalkovich Palace or the Presidential Palace, is located at Hodžovo námestie 2978/1, 811 06 Bratislava, Slovakia. It is a Rococo-late Baroque summer palace with a French garden. The palace serves as the residence of the President of Slovakia. It was opened in 1760. The palace's hours of operation are from 8 AM to 3 PM, but it's closed on weekends and holidays might affect these hours. The palace's phone number is +421 2/578 881 55.</t>
+  </si>
+  <si>
+    <t>Odrestaurowana hala targowo-kulturalna z 1910 roku, w której odbywają się targi z produktami rolnymi i jedzeniem ulicznym.The Old Market Hall (Stara tržnica in Slovak) in Bratislava is a notable historical building located in the heart of the city. Constructed around 1910, it was originally designed to serve as a central marketplace and has played a significant role in the daily life of the city’s residents.
+Over the years, the use of the building has evolved. Although it no longer functions as a traditional market hall, it has been revitalized and repurposed for various cultural and social events. The Old Market Hall now hosts a variety of activities, including a popular farmer's market, where local producers sell fresh produce, artisanal products, and other goods. Additionally, it is a venue for exhibitions, concerts, workshops, and other community gatherings.
+The architecture of the Old Market Hall is a point of interest, reflecting the typical styles of the early 20th century. The building has also undergone renovations to preserve its historical character while adapting to modern uses.
+The location of the Old Market Hall, in the center of Bratislava, near the Danube River and surrounded by other historical sites, makes it an easily accessible and attractive spot for both locals and tourists. Its function as a cultural and social hub helps maintain the vibrant urban life of Bratislava’s historical center.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Basilico is a highly rated Italian restaurant located at Dunajská 25 in Bratislava, Slovakia. The restaurant has a rating of 4.5 out of 5 on Tripadvisor and is ranked #28 out of 1241 restaurants in Bratislava. It also has a Google rating of 4.6. The restaurant is open from 11 AM to 10 PM. Basilico offers a variety of services including dine-in, takeout, and no-contact delivery. It also provides outdoor seating and is wheelchair accessible. The restaurant serves Italian cuisine and offers vegan options. However, for a detailed and updated menu, it would be best to visit the restaurant's official website or contact them directly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Łąka partyzantów, also known as Partisan Meadow, is a hiking area located in Bratislava, Slovakia specifically at Cesta na Červený most, 831 01 Nové Mesto. It is open 24 hours a day, although this may change during holidays like Labour Day. The park is unique as it is characterized by a dense network of pathways and a hill unlike most city parks that are typically flat. It also houses recreational facilities and cabins that sell drinks and snacks. A cable car service is also available within the park. A notable issue is that parks in Bratislava including Partisan Meadow, lack consistent care.</t>
+  </si>
+  <si>
+    <t>Przecinający Dunaj most z linią tramwajową, osobnymi pasami dla pieszych i rowerów oraz widokiem na Stare Miasto.Starý most, which translates to "Old Bridge" in English, is a significant structure in Bratislava, the capital city of Slovakia. It spans the Danube River and primarily connects the historic city center of Bratislava with the Petržalka borough, which lies on the right bank of the river. The bridge plays a pivotal role in the urban infrastructure and daily commuting.
+Originally built between 1890 and 1891, Starý most was a steel truss bridge that featured both roadways and tram tracks. Throughout its history, it has undergone various reconstructions and repairs. The most substantial renovation began in 2013 when the bridge was completely closed to all traffic and underwent a significant reconstruction, which was completed in 2015.
+The reconstructed Starý most is now a sleek, modern bridge serving pedestrians, cyclists, and trams, but not general vehicular traffic. It has one central tram track that connects the tram systems of the city center with Petržalka, part of an effort to integrate the public transportation infrastructure across the Danube.
+The bridge has also become a spot for enjoying panoramic views of Bratislava, including landmarks such as Bratislava Castle and the UFO Observation Deck. Its contemporary design and functionality make it an important fixture in Bratislava’s urban landscape, enhancing the connectivity and aesthetic appeal of the city.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Fontanna Maksymiliana, also known as the Roland Fountain or Maximilian's Fountain, is the most famous fountain and an important landmark in Bratislava, Slovakia. It is located in the Old Town, on the Main Square. The fountain was built in 1572 on the orders of Maximilian II, the king of Royal Hungary, to provide a public water supply. It is a historical landmark that is open 24 hours a day. It is located at Hlavné námestie, 811 01 Staré Mesto, Slovakia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FACH Bistro is located in Bratislava, Slovakia at Ventúrska 10, 811 01. They can be reached at the phone number +421 918 734 129. The bistro has a high rating of 4.5 out of 5 on Tripadvisor and is ranked 32 out of 1240 restaurants in Bratislava. They serve honest, seasonal dishes with an emphasis on the quality and origin of ingredients. FACH also includes a bakery and a juice shop that offers a wide range of cold-pressed juices. The restaurant and bar is nestled among living trees, serving light dishes, coffee, and homemade pastries. Their operating hours are from 9 AM to 6 PM from Monday to Sunday. However, some customers have expressed dissatisfaction with their vegan options.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La Pala is an Italian restaurant located at Hviezdoslavovo námestie 23, 811 02 Staré Mesto, Slovakia. It's part of the Medusa culinary group and known for its traditional Italian menu and unique atmosphere. The restaurant bakes pizza in a wood-burning oven and offers gluten-free options such as pasta and risotto. It has a rating of 3.5 on Tripadvisor and is ranked 239 out of 1241 restaurants in Bratislava. On TheFork, it has a rating of 9.2/10, with the quality of food rated as 9.3/10 and service as 9.1/10. The operating hours are generally from 11 AM to 11 PM or 12 AM, and the phone number is +421 911 019 251.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> As of my last update, Modrá Hviezda is a restaurant located in Bratislava, the capital of Slovakia. It is known for serving traditional Slovak cuisine, offering a range of dishes that highlight the country's culinary heritage.
+The restaurant has a rustic atmosphere, reflecting the traditional Slovak style, which is often appreciated by both locals and tourists. Located near the Bratislava Castle, it offers a great option for dining in a historical setting, adding to the overall cultural experience.
+Popular dishes at Modrá Hviezda might include items like bryndzové halušky (potato dumplings with sheep cheese), various meat dishes including game, and other regional specialties that are characteristic of Slovak cuisine.
+It has generally received positive reviews for its food, service, and atmosphere, making it a recommended dining spot for those wanting to experience traditional Slovak flavors and hospitality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The SNM-Historical Museum (Slovenské národné múzeum - Historické múzeum) in Bratislava is part of the Slovak National Museum (Slovenské národné múzeum), which is the foremost institution focusing on scientific research and cultural education in Slovakia. The Historical Museum primarily deals with the collection, preservation, and exhibition of Slovakia's historical artifacts.
+One of the key locations for the Historical Museum is the Bratislava Castle, a prominent historical building situated on a plateau 85 meters above the Danube. The castle houses extensive exhibitions that cover Slovak history from the earliest periods to the present. Notably, its exhibitions include artifacts related to aristocracy, the history of crafts, culture, and also the development of society in Slovakia through the centuries.
+The museum offers various themed exhibitions such as historical furniture, silver, and clocks. It also holds significant temporary exhibitions which often pertain to broad European historical contexts, connecting Slovak history with wider historical narratives.
+Additionally, the museum's location offers spectacular views of Bratislava, the Danube, and the surrounding areas, making it a popular destination for both its historical content and scenic value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mešuge Craft Beer Pub is a brewpub located at Vysoká 15, 811 06 Bratislava, Slovakia. It is open from 11 AM until 12 AM on weekdays, until 1 AM on Fridays and Saturdays, and until 11 PM on Sundays. The pub serves craft beer, hamburgers, and a lunch menu. The pub has a high rating of 5 out of 5 on Tripadvisor and is also listed as a Beer Garden. The choice/quality of drinks is rated 8/10. You can contact them on this number: +421 944 737 688.</t>
   </si>
   <si>
     <t>Zamek Bratysławski, also known as Bratislava Castle, is located in the capital of Slovakia, on a hill overlooking the Danube River. This strategic location provides views of Austria and, on clear days, parts of Hungary, which makes it a significant historic site in central Europe.
@@ -599,6 +684,9 @@
 Most SNP remains a feat of engineering and a distinctive part of Bratislava’s skyline, reflecting both the historical and modern aspects of the city. Whether admired for its bold design or visited for the panoramic views it offers, the UFO Tower is a central part of experiencing Bratislava’s urban culture.</t>
   </si>
   <si>
+    <t>Bratislava Flagship Restauracja is an expansive restaurant located in an ornate old theater in Bratislava, Slovakia at the address Námestie SNP 8, 811 02. The restaurant serves traditional Slovak fare and house-brewed beers. It is known to be one of the largest restaurants in Europe. The restaurant is open from 11:00 AM to 10:00 PM on weekdays, 12:00 PM to 11:00 PM on Saturdays, and 12:00 PM to 10:00 PM on Sundays. The contact number is +421 917 927 673. The menu can be found on their website: bratislavskarestauracia.sk. The restaurant is highly rated by patrons, with a score of 4 for food, service, and value, and 4.5 for atmosphere on Tripadvisor. The restaurant also boasts a special brewing process for their Kláštorný lager of the Pilsen type, which matures for 28 days in original monastery cellars. The upper monumental spaces of the restaurant are located within the former Mercy Brothers' monastery.</t>
+  </si>
+  <si>
     <t>The Katedra św. Marcina in Bratysława, or St. Martin's Cathedral, is a significant Roman Catholic church located in Bratislava, Slovakia. This cathedral is historically important as it was the coronation church of the Kingdom of Hungary between 1563 and 1830. Approximately 19 Hungarian kings and queens were crowned within its walls.
 The cathedral's full name is The Cathedral of St. Martin and construction of the original building likely began in the 13th century, in the Romanesque style, but it was completed in the Gothic style in the 15th century after several phases of construction and reconstructions following damages, particularly from earthquakes. It stands out with its impressive 85-meter high spire.
 An interesting feature of the cathedral is the replica of the Hungarian Royal Crown perched on the top of its spire, symbolizing its historical role in the coronations. Inside, the cathedral houses many artistic and historically valuable works including altarpieces, paintings, and statues.
@@ -622,6 +710,9 @@
 The theatre has two buildings: the historical building and the new building. The historical building, also known as the Old Building, is an architectural gem in neo-Renaissance style, inaugurated in 1886. It was originally named after the Hungarian composer Ferenc Erkel as it was built during a period when the now Slovak Republic was a part of the Austro-Hungarian Empire. This building is situated in Hviezdoslav Square in downtown Bratislava and is a prominent landmark.
 In 2007, a modern venue, known as the New Building, was opened to accommodate the growing demand for performances, situated on the left bank of the Danube. This contemporary structure is equipped with advanced technology to support various large-scale productions.
 The Slovak National Theatre serves as a center of artistic excellence, promoting Slovak culture while also embracing international collaborations. The institution frequently participates in prestigious international festivals and its productions often feature both local and globally renowned artists. The theatre remains a crucial part of Slovakia's cultural scene, contributing significantly to its artistic landscape.</t>
+  </si>
+  <si>
+    <t>Urban House is a trendy restaurant located at Laurinská 213/14, ground floor, 811 01 Bratislava, Slovakia. It operates from 9 AM to 12 AM on most days, with extended hours until 2 AM on Fridays and Saturdays. Visitors usually spend about 1-2 hours at the restaurant, which is known for its cool interior, heavenly desserts, and spacious setting with communal tables. The restaurant also offers outdoor seating. Urban House provides a minimal food selection but is noted for its delicious desserts. It also offers gluten-free options and is gay-friendly. It is ranked 31 out of 1241 restaurants in Bratislava on Tripadvisor, with a rating of 4 out of 5. You can contact the restaurant at +421 911 755 205.</t>
   </si>
   <si>
     <t>The Danubiana Meulensteen Art Museum is a modern art museum located near Bratislava, Slovakia. It is situated on the Danube River, which provides a picturesque setting for the museum. More specifically, the museum is situated on the Čunovo Waterworks peninsula, making it one of the most uniquely located modern art museums in Europe. 
@@ -633,8 +724,14 @@
 As of the last available information, the museum continues to be a significant cultural landmark in Slovakia and a key point of interest for visitors to the Bratislava region.</t>
   </si>
   <si>
+    <t>Gatto Matto Panská is a highly-rated restaurant located at Panská 17, 811 01 Staré Mesto, Slovakia. It typically opens at 11 AM but is closed on certain holidays, including Labour Day. You can contact the restaurant at +421 911 131 233. The restaurant is known for its great atmosphere, friendly staff, and well-priced food and wine. It offers various dishes, including gluten-free and vegan options. The restaurant is rated 4.5 out of 5 on Tripadvisor and ranked 5th out of 1241 restaurants in Bratislava. For more information, you can check their website or Facebook page.</t>
+  </si>
+  <si>
     <t>Reštaurácia Divný Janko is a restaurant located in Bratislava, the capital city of Slovakia. It provides a selection of traditional Slovak cuisine, which typically features hearty dishes that are characteristic of Central European culinary traditions. The restaurant's menu likely includes items such as soups, stews, meat dishes (especially pork and chicken), and might offer local specialties like bryndzové halušky, which is a traditional Slovak dish made from potato dumplings, sheep cheese, and bacon.
 The exact address and detailed reviews or specific menu offerings for Reštaurácia Divný Janko would require further specific lookup as of my last training data in 2023. It would offer a genuine taste of Slovak food culture, possibly in a setting that reflects local traditions and hospitality. However, for the most accurate and current details, including opening hours, menu specifics, and customer reviews, checking platforms like TripAdvisor or Google Reviews would be advisable.</t>
+  </si>
+  <si>
+    <t>The Primate's Palace, also known as Pałac Prymasowski w Bratysławie, is a neoclassical palace located in the Old Town of Bratislava, Slovakia. It was built between 1778 and 1781 for Archbishop József Batthyány, based on the design of architect Melchior Hefele. The building is identifiable by its powder-pink color and its 150kg cast iron cardinal's hat. Today, the palace serves as the Mayor's seat and is considered one of the most beautiful places in Bratislava. It is associated with many legends and provides excellent views of Bratislava, Austria, and parts of Hungary in clear weather. The Primate's Palace is located at Primaciálne námestie 2, 811 01 Bratislava, Slovakia, and is generally open from 10 AM, closed on Mondays, with varying hours on holidays.</t>
   </si>
   <si>
     <t>The Kamzík TV Tower (Wieża telewizyjna Kamzík), officially known as the Bratislava Television Tower, is located on the hill of Kamzík in Bratislava, the capital of Slovakia. This tower is not just a significant broadcast facility but also a tourist attraction, thanks to its unique architecture and the amenities it offers.
@@ -644,18 +741,36 @@
 The tower’s design and functionality reflect the era of its construction, embodying the typical architectural and technological ambitions of the late 20th century in Central Europe. Its presence on the Bratislava skyline makes it an important landmark and symbol of the city’s broadcast capabilities and cultural tourism.</t>
   </si>
   <si>
+    <t>Pałac Prezydencki w Bratysławie, also known as the Grassalkovich Palace or the Presidential Palace, is located at Hodžovo námestie 2978/1, 811 06 Bratislava, Slovakia. It is a Rococo-late Baroque summer palace with a French garden. The palace serves as the residence of the President of Slovakia. It was opened in 1760. The palace's hours of operation are from 8 AM to 3 PM, but it's closed on weekends and holidays might affect these hours. The palace's phone number is +421 2/578 881 55.</t>
+  </si>
+  <si>
     <t>The Old Market Hall (Stara tržnica in Slovak) in Bratislava is a notable historical building located in the heart of the city. Constructed around 1910, it was originally designed to serve as a central marketplace and has played a significant role in the daily life of the city’s residents.
 Over the years, the use of the building has evolved. Although it no longer functions as a traditional market hall, it has been revitalized and repurposed for various cultural and social events. The Old Market Hall now hosts a variety of activities, including a popular farmer's market, where local producers sell fresh produce, artisanal products, and other goods. Additionally, it is a venue for exhibitions, concerts, workshops, and other community gatherings.
 The architecture of the Old Market Hall is a point of interest, reflecting the typical styles of the early 20th century. The building has also undergone renovations to preserve its historical character while adapting to modern uses.
 The location of the Old Market Hall, in the center of Bratislava, near the Danube River and surrounded by other historical sites, makes it an easily accessible and attractive spot for both locals and tourists. Its function as a cultural and social hub helps maintain the vibrant urban life of Bratislava’s historical center.</t>
   </si>
   <si>
+    <t>Basilico is a highly rated Italian restaurant located at Dunajská 25 in Bratislava, Slovakia. The restaurant has a rating of 4.5 out of 5 on Tripadvisor and is ranked #28 out of 1241 restaurants in Bratislava. It also has a Google rating of 4.6. The restaurant is open from 11 AM to 10 PM. Basilico offers a variety of services including dine-in, takeout, and no-contact delivery. It also provides outdoor seating and is wheelchair accessible. The restaurant serves Italian cuisine and offers vegan options. However, for a detailed and updated menu, it would be best to visit the restaurant's official website or contact them directly.</t>
+  </si>
+  <si>
+    <t>Łąka partyzantów, also known as Partisan Meadow, is a hiking area located in Bratislava, Slovakia specifically at Cesta na Červený most, 831 01 Nové Mesto. It is open 24 hours a day, although this may change during holidays like Labour Day. The park is unique as it is characterized by a dense network of pathways and a hill unlike most city parks that are typically flat. It also houses recreational facilities and cabins that sell drinks and snacks. A cable car service is also available within the park. A notable issue is that parks in Bratislava including Partisan Meadow, lack consistent care.</t>
+  </si>
+  <si>
     <t>Starý most, which translates to "Old Bridge" in English, is a significant structure in Bratislava, the capital city of Slovakia. It spans the Danube River and primarily connects the historic city center of Bratislava with the Petržalka borough, which lies on the right bank of the river. The bridge plays a pivotal role in the urban infrastructure and daily commuting.
 Originally built between 1890 and 1891, Starý most was a steel truss bridge that featured both roadways and tram tracks. Throughout its history, it has undergone various reconstructions and repairs. The most substantial renovation began in 2013 when the bridge was completely closed to all traffic and underwent a significant reconstruction, which was completed in 2015.
 The reconstructed Starý most is now a sleek, modern bridge serving pedestrians, cyclists, and trams, but not general vehicular traffic. It has one central tram track that connects the tram systems of the city center with Petržalka, part of an effort to integrate the public transportation infrastructure across the Danube.
 The bridge has also become a spot for enjoying panoramic views of Bratislava, including landmarks such as Bratislava Castle and the UFO Observation Deck. Its contemporary design and functionality make it an important fixture in Bratislava’s urban landscape, enhancing the connectivity and aesthetic appeal of the city.</t>
   </si>
   <si>
+    <t>The Fontanna Maksymiliana, also known as the Roland Fountain or Maximilian's Fountain, is the most famous fountain and an important landmark in Bratislava, Slovakia. It is located in the Old Town, on the Main Square. The fountain was built in 1572 on the orders of Maximilian II, the king of Royal Hungary, to provide a public water supply. It is a historical landmark that is open 24 hours a day. It is located at Hlavné námestie, 811 01 Staré Mesto, Slovakia.</t>
+  </si>
+  <si>
+    <t>FACH Bistro is located in Bratislava, Slovakia at Ventúrska 10, 811 01. They can be reached at the phone number +421 918 734 129. The bistro has a high rating of 4.5 out of 5 on Tripadvisor and is ranked 32 out of 1240 restaurants in Bratislava. They serve honest, seasonal dishes with an emphasis on the quality and origin of ingredients. FACH also includes a bakery and a juice shop that offers a wide range of cold-pressed juices. The restaurant and bar is nestled among living trees, serving light dishes, coffee, and homemade pastries. Their operating hours are from 9 AM to 6 PM from Monday to Sunday. However, some customers have expressed dissatisfaction with their vegan options.</t>
+  </si>
+  <si>
+    <t>La Pala is an Italian restaurant located at Hviezdoslavovo námestie 23, 811 02 Staré Mesto, Slovakia. It's part of the Medusa culinary group and known for its traditional Italian menu and unique atmosphere. The restaurant bakes pizza in a wood-burning oven and offers gluten-free options such as pasta and risotto. It has a rating of 3.5 on Tripadvisor and is ranked 239 out of 1241 restaurants in Bratislava. On TheFork, it has a rating of 9.2/10, with the quality of food rated as 9.3/10 and service as 9.1/10. The operating hours are generally from 11 AM to 11 PM or 12 AM, and the phone number is +421 911 019 251.</t>
+  </si>
+  <si>
     <t>As of my last update, Modrá Hviezda is a restaurant located in Bratislava, the capital of Slovakia. It is known for serving traditional Slovak cuisine, offering a range of dishes that highlight the country's culinary heritage.
 The restaurant has a rustic atmosphere, reflecting the traditional Slovak style, which is often appreciated by both locals and tourists. Located near the Bratislava Castle, it offers a great option for dining in a historical setting, adding to the overall cultural experience.
 Popular dishes at Modrá Hviezda might include items like bryndzové halušky (potato dumplings with sheep cheese), various meat dishes including game, and other regional specialties that are characteristic of Slovak cuisine.
@@ -668,14 +783,100 @@
 Additionally, the museum's location offers spectacular views of Bratislava, the Danube, and the surrounding areas, making it a popular destination for both its historical content and scenic value.</t>
   </si>
   <si>
-    <t>The Old Town Hall (Starý radnica) in Bratislava, Slovakia, is one of the oldest stone buildings in the city, with a history that stretches back to the 14th century. Situated in the heart of Bratislava's historic center at the Main Square (Hlavné námestie), its coordinates are approximately 48.143791 latitude and 17.1086765 longitude. 
-The building initially served as the city's town hall from the 15th century and has been witness to many historical events. Over the centuries, it has undergone various renovations and expansions. Notably, it blends different architectural styles, including Gothic, Renaissance, and Baroque, reflecting the changes it has undergone over time.
-Features of the Old Town Hall include a tower, which was added in the 14th century, and provides a panoramic view of Bratislava. The tower is a prominent feature and is often used as a symbol of the city. The façade of the building features a colorful coat of arms, which is a key attraction.
-The premises now house the Bratislava City Museum, established in 1868, making it one of the oldest museums in Slovakia. The museum displays exhibits related to the history of Bratislava, including artifacts from medieval and modern periods, old weaponry, and municipal devices reflecting the past civic life of the city.
-The Old Town Hall is not only a historical site but also a cultural venue, hosting various cultural events and exhibitions throughout the year. Its central location in the Main Square makes it a popular spot for tourists and locals alike, contributing significantly to the cultural and social life of Bratislava.</t>
-  </si>
-  <si>
-    <t>brak</t>
+    <t>Mešuge Craft Beer Pub is a brewpub located at Vysoká 15, 811 06 Bratislava, Slovakia. It is open from 11 AM until 12 AM on weekdays, until 1 AM on Fridays and Saturdays, and until 11 PM on Sundays. The pub serves craft beer, hamburgers, and a lunch menu. The pub has a high rating of 5 out of 5 on Tripadvisor and is also listed as a Beer Garden. The choice/quality of drinks is rated 8/10. You can contact them on this number: +421 944 737 688.</t>
+  </si>
+  <si>
+    <t>Zamek Devín, położony na skrzyżowaniu rzek Dunaj i Morawa, to miejsce o kluczowym znaczeniu strategicznym i handlowym przez całą historię. Jest szczególnie znany ze swojego wkładu w historię Słowacji, będąc świadkiem ważnych wydarzeń od czasów późnego paleolitu, przez rzymskie czaszki, po średniowieczne posiadłości rodzin szlacheckich. Dziś ten częściowo zrekonstruowany zamek oferuje muzealne wystawy i jest areną kulturalnych wydarzeń, przyciągając tłumy turystów zainteresowanych jego bogatymi dziejami i architekturą.</t>
+  </si>
+  <si>
+    <t>Kościół św. Elżbiety, znany również jako Błękitny Kościół, to wyjątkowa perła architektury z początku XX wieku. Zaprojektowany przez węgierskiego architekta w stylu secesji, wyróżnia się pastelowoniebieskim kolorem i delikatnymi zdobieniami. Stanowi on jedno z najbardziej rozpoznawalnych i fotografowanych miejsc w Bratysławie.</t>
+  </si>
+  <si>
+    <t>Bratislava Flagship to wyjątkowa restauracja ulokowana w przepięknie zdobionym, starym teatrze w Bratysławie. Miejsce to serwuje klasyczne dania kuchni słowackiej oraz piwo warzone na miejscu, dojrzewające przez 28 dni w oryginalnych piwnicach klasztornych. Jako jedna z największych restauracji w Europie, zachwyca nie tylko bogatym menu, ale i monumentalnym wnętrzem dawnego klasztoru Braci Miłosierdzia.</t>
+  </si>
+  <si>
+    <t>Usytuowane na półwyspie Čunovo nad brzegiem Dunaju, Danubiana Meulensteen Art Museum jest jednym z najbardziej malowniczo położonych muzeów sztuki nowoczesnej w Europie. Charakterystyczna architektura muzeum przypominająca rzymską galerę dodatkowo uwydatnia jego związki z rzeką. Znajdujący się wokół bogaty park rzeźb w połączeniu z dynamicznymi wystawami sztuki miejscowej i międzynarodowej czyni to miejsce ważnym ośrodkiem kultury współczesnej.</t>
+  </si>
+  <si>
+    <t>Zamek Bratysławski, usytuowany na wzniesieniu z widokiem na Dunaj, stanowi kluczowe miejsce zarówno ze względów strategicznych, jak i historycznych. Obiekt, którego początki sięgają epoki kamienia i brązu, przeszedł liczne przemiany, od rzymskiej fortyfikacji po barokowy pałac. Obecnie mieści kolekcje Słowackiego Muzeum Narodowego oraz służy jako przestrzeń na różnorodne wydarzenia kulturowe i ceremonie, oferując równocześnie jedne z najlepszych widoków na Bratysławę i okolice.</t>
+  </si>
+  <si>
+    <t>Eurovea, położony nad brzegami Dunaju, oferuje nie tylko zakupy, ale i kompleksowe doświadczenie miejskie. W centrum znajduje się niemal 200 sklepów, a także liczne restauracje i przestrzenie rekreacyjne, w tym place zabaw i kino. Architektura i rozplanowanie Eurovea sprzyjają zarówno codziennym zakupom, jak i weekendowym wypadom, czyniąc to miejsce pulsującym sercem kulturalnym i społecznym stolicy Słowacji.</t>
+  </si>
+  <si>
+    <t>Brama Michalska to jedyna medievalna brama miasta, położona w historycznym centrum i datująca się na XIV wiek. Znana jako Michałska Brama, pełniła kluczową rolę w obronności miasta, a obecnie przyciąga jako muzeum broni oraz punkt widokowy oferujący panoramę Starego Miasta. Otoczona brukowanymi uliczkami i urokliwymi kawiarniami, stanowi tętniące życiem miejsce spotkań.</t>
+  </si>
+  <si>
+    <t>Slovak Pub to popularne miejsce, które serwuje tradycyjne słowackie potrawy w atmosferze pełnej lokalnych dekoracji i historycznych elementów. To idealny punkt dla zwiedzających, by zanurzyć się w kulinarnym dziedzictwie Słowacji.</t>
+  </si>
+  <si>
+    <t>Čumil to niezwykła, brązowa rzeźba znajdująca się w starej części Bratysławy. Przedstawia mężczyznę wychylającego się z włazu kanalizacyjnego. Ta oryginalna atrakcja jest popularnym miejscem do robienia zdjęć, a jej zabawny charakter dodatkowo wzbogaca atmosferę historycznego centrum miasta.</t>
+  </si>
+  <si>
+    <t>Slavín, to zarówno cmentarz wojenny, jak i pomnik upamiętniający żołnierzy radzieckich poległych podczas wyzwalania miasta w II wojnie światowej. Charakterystyczną cechą tego miejsca jest imponujący obelisk z figurą radzieckiego żołnierza, otoczonym przez masowe groby oraz indywidualne nagrobki. Slavín oferuje nie tylko przestrzeń do refleksji, ale również funkcjonuje jako park i obszar rekreacyjny, oferując wspaniałe widoki na panoramę miasta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most SNP, nazywany także Wieżą UFO, przyciąga uwagę swym niezwykłym wyglądem przypominającym latający spodek umieszczony na szczycie pylonu. Rozciągnięty nad Dunajem, most łączy różne dzielnice Bratysławy, oferując z tarasu widokowego oraz restauracji panoramiczne spojrzenie na miasto i rzekę. </t>
+  </si>
+  <si>
+    <t>Katedra św. Marcina, zbudowana w stylach romańskim i gotyckim, była miejscem koronacji węgierskich monarchów. Charakteryzuje się 85-metrową wieżą z repliką węgierskiej korony królewskiej na swoim szczycie. Wnętrze katedry kryje dzieła sztuki i bogate krypty, gdzie pochowano znaczące postaci historyczne, co czyni ją kluczowym punktem zarówno dla wierzących, jak i turystów odwiedzających starówkę Bratysławy.</t>
+  </si>
+  <si>
+    <t>Bratislavský Meštiansky Pivovar to serce piwowarskiej tradycji Słowacji, mieszczące się w centralnej części miasta. Browar łączy lokalne składniki i metody warzenia z nowoczesnymi technologiami, aby dostarczyć bogate doznania smakowe zarówno w swoim piwie, jak i w kuchni słowackiej. Popularne miejsce spotkań, zarówno dla mieszkańców, jak i turystów, oferuje nie tylko różnorodne piwa warzone na miejscu, ale także jest aktywnym uczestnikiem lokalnych festiwali piwnych.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marketplace Miletičova to tętniący życiem rynek zewnętrzny, gdzie lokalni rolnicy i sprzedawcy oferują świeże owoce, warzywa i inne produkty spożywcze. Znajduje się w dogodnej lokalizacji blisko centrum miasta, co przyciąga zarówno mieszkańców, jak i turystów. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Słowacki Teatr Narodowy jest wyjątkowym miejscem z bogatą ofertą artystyczną, obejmującą operę, balet i dramat. Neorenesansowy budynek historyczny otwarty w 1886 roku zlokalizowany jest na placu Hviezdoslav, a nowoczesna siedziba z 2007 roku znajduje się nad brzegiem Dunaju. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urban House to modna restauracja w Bratysławie, która zaprasza nie tylko przestronnym wnętrzem i wspólnymi stołami, ale także atrakcyjnymi deserami oraz opcjami bezglutenowymi. Lokal cieszy się dobrą opinią wśród gości, oferując możliwość spędzenia czasu na świeżym powietrzu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gatto Matto Panská to dobrze oceniana restauracja usytuowana w historycznym sercu Starego Miasta. Goście chwalą ją za przyjemny klimat, życzliwą obsługę oraz atrakcyjne ceny potraw i win, w tym opcje dla wegan i osób na diecie bezglutenowej. </t>
+  </si>
+  <si>
+    <t>Reštaurácia Divný Janko to serce słowackiej kuchni, oferując menu pełne tradycyjnych, sycących dań z Europy Środkowej. Goście mogą skosztować takich przysmaków jak bryndzové halušky – lokalne danie z klusek ziemniaczanych, owczego sera i boczku.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pałac Prymasowski w Bratysławie, wybudowany w latach 1778-1781 jako siedziba arcybiskupa, jest dziś znaczącym miejscem w starym mieście z neoklasyczną architekturą i rozpoznawalną różową fasadą. Obecnie, oprócz funkcji urzędowych jako siedziba burmistrza, pełni również rolę sali koncertowej. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wieża telewizyjna Kamzík, wznosząca się na wzgórzu Kamzík, kusi nie tylko jako obiekt nadawczy, ale i atrakcja turystyczna. Dzięki obserwatorium i restauracji, wieża oferuje odwiedzającym niezapomniane widoki na miasto oraz okolicę. </t>
+  </si>
+  <si>
+    <t>Pałac Prezydencki, znany także jako Pałac Grassalkovicha, to letni pałac w stylu rokoko z późnego baroku, otoczony francuskimi ogrodami. Wizytówką posełki jest efektowna fontanna z rzeźbą przedstawiającą kulę ziemską. Obiekt jest obecnie rezydencją prezydenta Słowacji i został otwarty w 1760 roku.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Old Market Hall, zlokalizowana w sercu Bratysławy, jest urokliwym miejscem z bogatą historią sięgającą 1910 roku. Dziś nie tylko pełni rolę targowiska dla lokalnych rolników, ale również stanowi centrum kulturalne, organizując wystawy, koncerty i warsztaty. </t>
+  </si>
+  <si>
+    <t>Basilico cieszy się uznaniem miłośników włoskiej kuchni. Oferując opcje takie jak jedzenie na miejscu, na wynos oraz dostawę bezkontaktową, restauracja przyciąga różnorodnych gości. Dostępność miejsc na zewnątrz oraz opcje wegańskie dodatkowo podnoszą jej atrakcyjność.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Łąka Partyzantów to nie tylko malowniczy obszar na spacery, ale i teren z bogatą siecią ścieżek oraz wzgórzem. Znajdują się tam obiekty rekreacyjne oraz drewniane chatki oferujące przekąski. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starý most to nowoczesny most dla pieszych, rowerzystów i tramwajów, łączący centrum Bratysławy z dzielnicą Petržalka. Przebudowany w 2015 roku, stał się jednym z kluczowych elementów miejskiej infrastruktury, oferując nie tylko efektywne połączenie, ale i zapierające dech w piersiach widoki na miasto, w tym na zamek Bratysławski. </t>
+  </si>
+  <si>
+    <t>Fontanna Maksymiliana, położona na Głównym Rynku Starego Miasta, pełni rolę kluczowego punktu orientacyjnego. Zbudowana w 1572 roku, miała zapewnić mieszkańcom dostęp do wody pitnej. Dziś stanowi ważny element architektoniczny i kulturalny miasta, dostępny dla zwiedzających o każdej porze dnia i nocy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACH Bistro to więcej niż tylko restauracja; to kulinarny przystanek, który celebruje sezonowość i jakość składników. Znajdujące się wśród żywych drzew, oferuje lekkie potrawy, świeże soki i domowe wypieki. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Pala to włoska restauracja, znana z tradycyjnych włoskich dań przygotowywanych w piecu opalanym drewnem. Miejsce to przyciąga nie tylko miłośników pizzy, ale i osób poszukujących bezglutenowych wariantów takich jak pasta czy risotto. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restauracja Modrá Hviezda oferuje gościom głębokie zanurzenie w tradycyjnej kuchni słowackiej. Położona w pobliżu zamku, zapewnia malownicze tło do degustacji lokalnych dań, takich jak bryndzové halušky. </t>
+  </si>
+  <si>
+    <t>Muzeum Historyczne SNM, ulokowane w majestatycznym Zamku Bratysławskim, stanowi kluczowy element kulturalno-naukowego dziedzictwa Słowacji. Prezentuje bogactwo historycznych eksponatów od najdawniejszych czasów po współczesność, ukazując m.in. życie arystokracji oraz rozwój rzemiosła i społeczeństwa. Z zamkowych murów roztaczają się również zapierające dech w piersiach widoki na Dunaj i miasto, co czyni muzeum atrakcją nie tylko dla miłośników historii.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mešuge Craft Beer Pub, to idealne miejsce dla miłośników piwa rzemieślniczego. Oprócz szerokiej selekcji piw, pub oferuje również smakowite hamburgery i menu lunchowe. </t>
   </si>
 </sst>
 </file>
@@ -1046,15 +1247,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1091,19 +1290,22 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E2">
         <v>48.1421086</v>
@@ -1112,7 +1314,7 @@
         <v>17.100234799999999</v>
       </c>
       <c r="G2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H2">
         <v>4.5</v>
@@ -1121,27 +1323,30 @@
         <v>50500</v>
       </c>
       <c r="J2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="M2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E3">
         <v>48.140321499999999</v>
@@ -1150,7 +1355,7 @@
         <v>17.121313000000001</v>
       </c>
       <c r="G3" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="H3">
         <v>4.5</v>
@@ -1159,27 +1364,30 @@
         <v>22384</v>
       </c>
       <c r="J3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="M3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E4">
         <v>48.173843599999998</v>
@@ -1188,7 +1396,7 @@
         <v>16.978585599999999</v>
       </c>
       <c r="G4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H4">
         <v>4.7</v>
@@ -1197,27 +1405,30 @@
         <v>17060</v>
       </c>
       <c r="J4" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="M4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E5">
         <v>48.145166799999998</v>
@@ -1226,7 +1437,7 @@
         <v>17.106735</v>
       </c>
       <c r="G5" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="H5">
         <v>4.5</v>
@@ -1235,27 +1446,30 @@
         <v>13153</v>
       </c>
       <c r="J5" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="M5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E6">
         <v>48.148370999999997</v>
@@ -1264,7 +1478,7 @@
         <v>17.1123577</v>
       </c>
       <c r="G6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H6">
         <v>4.2</v>
@@ -1272,25 +1486,31 @@
       <c r="I6">
         <v>11955</v>
       </c>
+      <c r="J6" t="s">
+        <v>146</v>
+      </c>
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="L6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="M6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E7">
         <v>48.142845600000001</v>
@@ -1299,7 +1519,7 @@
         <v>17.1088877</v>
       </c>
       <c r="G7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H7">
         <v>4.5</v>
@@ -1308,27 +1528,30 @@
         <v>9691</v>
       </c>
       <c r="J7" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="M7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E8">
         <v>48.143312799999997</v>
@@ -1337,7 +1560,7 @@
         <v>17.116736700000001</v>
       </c>
       <c r="G8" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H8">
         <v>4.5999999999999996</v>
@@ -1346,27 +1569,30 @@
         <v>9388</v>
       </c>
       <c r="J8" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="M8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E9">
         <v>48.1539365</v>
@@ -1375,7 +1601,7 @@
         <v>17.099592099999999</v>
       </c>
       <c r="G9" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="H9">
         <v>4.7</v>
@@ -1384,27 +1610,30 @@
         <v>8229</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="M9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E10">
         <v>48.136816400000001</v>
@@ -1413,7 +1642,7 @@
         <v>17.104616499999999</v>
       </c>
       <c r="G10" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H10">
         <v>4.5</v>
@@ -1422,27 +1651,30 @@
         <v>7921</v>
       </c>
       <c r="J10" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+      <c r="M10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>48.146111099999999</v>
@@ -1451,7 +1683,7 @@
         <v>17.110277799999999</v>
       </c>
       <c r="G11" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H11">
         <v>4.3</v>
@@ -1460,27 +1692,30 @@
         <v>7534</v>
       </c>
       <c r="J11" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="M11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E12">
         <v>48.142000699999997</v>
@@ -1489,7 +1724,7 @@
         <v>17.1050149</v>
       </c>
       <c r="G12" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H12">
         <v>4.5999999999999996</v>
@@ -1498,27 +1733,30 @@
         <v>6857</v>
       </c>
       <c r="J12" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+      <c r="M12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E13">
         <v>48.1459197</v>
@@ -1527,7 +1765,7 @@
         <v>17.117710500000001</v>
       </c>
       <c r="G13" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="H13">
         <v>4.4000000000000004</v>
@@ -1535,25 +1773,31 @@
       <c r="I13">
         <v>6459</v>
       </c>
+      <c r="J13" t="s">
+        <v>153</v>
+      </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="M13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E14">
         <v>48.153284499999998</v>
@@ -1562,7 +1806,7 @@
         <v>17.137209200000001</v>
       </c>
       <c r="G14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H14">
         <v>4.2</v>
@@ -1570,25 +1814,31 @@
       <c r="I14">
         <v>6099</v>
       </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+      <c r="M14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E15">
         <v>48.141109399999998</v>
@@ -1597,7 +1847,7 @@
         <v>17.123430200000001</v>
       </c>
       <c r="G15" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H15">
         <v>4.7</v>
@@ -1605,25 +1855,31 @@
       <c r="I15">
         <v>4944</v>
       </c>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="M15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E16">
         <v>48.143650999999998</v>
@@ -1632,7 +1888,7 @@
         <v>17.111183</v>
       </c>
       <c r="G16" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H16">
         <v>4.3</v>
@@ -1640,25 +1896,31 @@
       <c r="I16">
         <v>3965</v>
       </c>
+      <c r="J16" t="s">
+        <v>156</v>
+      </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+      <c r="M16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E17">
         <v>48.034277400000001</v>
@@ -1667,7 +1929,7 @@
         <v>17.232688700000001</v>
       </c>
       <c r="G17" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H17">
         <v>4.8</v>
@@ -1676,27 +1938,30 @@
         <v>3750</v>
       </c>
       <c r="J17" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+      <c r="M17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E18">
         <v>48.142328999999997</v>
@@ -1705,7 +1970,7 @@
         <v>17.107468999999998</v>
       </c>
       <c r="G18" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H18">
         <v>4.7</v>
@@ -1713,25 +1978,31 @@
       <c r="I18">
         <v>3559</v>
       </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="M18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E19">
         <v>48.150976900000003</v>
@@ -1740,7 +2011,7 @@
         <v>17.109808000000001</v>
       </c>
       <c r="G19" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H19">
         <v>4.2</v>
@@ -1748,25 +2019,31 @@
       <c r="I19">
         <v>3239</v>
       </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="M19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E20">
         <v>48.143914500000001</v>
@@ -1775,7 +2052,7 @@
         <v>17.1096556</v>
       </c>
       <c r="G20" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="H20">
         <v>4.5</v>
@@ -1784,7 +2061,7 @@
         <v>3175</v>
       </c>
       <c r="J20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1792,19 +2069,22 @@
       <c r="L20" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E21">
         <v>48.1826322</v>
@@ -1813,7 +2093,7 @@
         <v>17.094970700000001</v>
       </c>
       <c r="G21" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H21">
         <v>4.3</v>
@@ -1821,25 +2101,31 @@
       <c r="I21">
         <v>2882</v>
       </c>
+      <c r="J21" t="s">
+        <v>161</v>
+      </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="M21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E22">
         <v>48.149195900000002</v>
@@ -1848,7 +2134,7 @@
         <v>17.107744700000001</v>
       </c>
       <c r="G22" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H22">
         <v>4.5</v>
@@ -1857,27 +2143,30 @@
         <v>2656</v>
       </c>
       <c r="J22" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+      <c r="M22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E23">
         <v>48.144699299999999</v>
@@ -1886,7 +2175,7 @@
         <v>17.111595300000001</v>
       </c>
       <c r="G23" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H23">
         <v>4.5999999999999996</v>
@@ -1895,27 +2184,30 @@
         <v>2569</v>
       </c>
       <c r="J23" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+      <c r="M23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E24">
         <v>48.145960000000002</v>
@@ -1924,7 +2216,7 @@
         <v>17.119313999999999</v>
       </c>
       <c r="G24" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H24">
         <v>4.5999999999999996</v>
@@ -1932,25 +2224,31 @@
       <c r="I24">
         <v>2357</v>
       </c>
+      <c r="J24" t="s">
+        <v>164</v>
+      </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+      <c r="M24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E25">
         <v>48.177291399999987</v>
@@ -1959,7 +2257,7 @@
         <v>17.074160500000001</v>
       </c>
       <c r="G25" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H25">
         <v>4.7</v>
@@ -1967,25 +2265,31 @@
       <c r="I25">
         <v>2357</v>
       </c>
+      <c r="J25" t="s">
+        <v>165</v>
+      </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+      <c r="M25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E26">
         <v>48.138513699999997</v>
@@ -1994,7 +2298,7 @@
         <v>17.117258100000001</v>
       </c>
       <c r="G26" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="H26">
         <v>4.7</v>
@@ -2003,27 +2307,30 @@
         <v>2112</v>
       </c>
       <c r="J26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="M26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E27">
         <v>48.1433702</v>
@@ -2032,7 +2339,7 @@
         <v>17.108163399999999</v>
       </c>
       <c r="G27" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="H27">
         <v>4.5</v>
@@ -2040,25 +2347,31 @@
       <c r="I27">
         <v>1741</v>
       </c>
+      <c r="J27" t="s">
+        <v>167</v>
+      </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="M27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E28">
         <v>48.142710899999997</v>
@@ -2067,7 +2380,7 @@
         <v>17.1065869</v>
       </c>
       <c r="G28" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H28">
         <v>4.5</v>
@@ -2075,25 +2388,31 @@
       <c r="I28">
         <v>1487</v>
       </c>
+      <c r="J28" t="s">
+        <v>168</v>
+      </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="M28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E29">
         <v>48.1421469</v>
@@ -2102,7 +2421,7 @@
         <v>17.108678300000001</v>
       </c>
       <c r="G29" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H29">
         <v>4</v>
@@ -2110,25 +2429,31 @@
       <c r="I29">
         <v>1468</v>
       </c>
+      <c r="J29" t="s">
+        <v>169</v>
+      </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="M29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E30">
         <v>48.141659099999998</v>
@@ -2137,7 +2462,7 @@
         <v>17.103310700000002</v>
       </c>
       <c r="G30" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H30">
         <v>4.5</v>
@@ -2145,25 +2470,31 @@
       <c r="I30">
         <v>1344</v>
       </c>
+      <c r="J30" t="s">
+        <v>170</v>
+      </c>
       <c r="K30">
         <v>1</v>
       </c>
-      <c r="L30" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L30" t="s">
+        <v>201</v>
+      </c>
+      <c r="M30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E31">
         <v>48.141964799999997</v>
@@ -2172,7 +2503,7 @@
         <v>17.1000762</v>
       </c>
       <c r="G31" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="H31">
         <v>4.2</v>
@@ -2180,25 +2511,31 @@
       <c r="I31">
         <v>1212</v>
       </c>
+      <c r="J31" t="s">
+        <v>171</v>
+      </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+      <c r="M31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E32">
         <v>48.1489549</v>
@@ -2207,7 +2544,7 @@
         <v>17.110625299999999</v>
       </c>
       <c r="G32" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="H32">
         <v>4.5</v>
@@ -2215,119 +2552,17 @@
       <c r="I32">
         <v>1069</v>
       </c>
+      <c r="J32" t="s">
+        <v>172</v>
+      </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33">
-        <v>48.143508399999988</v>
-      </c>
-      <c r="F33">
-        <v>17.107355399999999</v>
-      </c>
-      <c r="G33" t="s">
-        <v>152</v>
-      </c>
-      <c r="H33">
-        <v>4.2</v>
-      </c>
-      <c r="I33">
-        <v>778</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34">
-        <v>48.143791</v>
-      </c>
-      <c r="F34">
-        <v>17.108676500000001</v>
-      </c>
-      <c r="G34" t="s">
-        <v>153</v>
-      </c>
-      <c r="H34">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I34">
-        <v>703</v>
-      </c>
-      <c r="J34" t="s">
-        <v>169</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35">
-        <v>48.144163499999998</v>
-      </c>
-      <c r="F35">
-        <v>17.107341699999999</v>
-      </c>
-      <c r="G35" t="s">
-        <v>135</v>
-      </c>
-      <c r="H35">
-        <v>4.7</v>
-      </c>
-      <c r="I35">
-        <v>544</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35" t="s">
-        <v>191</v>
+        <v>203</v>
+      </c>
+      <c r="M32" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/Bratysława_miejsca_odnosniki.xlsx
+++ b/Bratysława_miejsca_odnosniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aspir\PODRÓŻE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D743B879-0036-4A18-B3D9-18382BCCC3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA08124-C113-4A93-9EE8-AEF0D4050D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="228">
   <si>
     <t>Miejsce</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Bratislava Castle</t>
   </si>
   <si>
-    <t>House of Pavira</t>
-  </si>
-  <si>
     <t>Devon Castle</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
     <t>Zamek Bratysławski</t>
   </si>
   <si>
-    <t>Eurovea</t>
-  </si>
-  <si>
     <t>Zamek Devín</t>
   </si>
   <si>
@@ -298,9 +292,6 @@
     <t>Hrad, 811 06 Bratislava, Słowacja</t>
   </si>
   <si>
-    <t>Pribinova 8, 811 09 Bratislava, Słowacja</t>
-  </si>
-  <si>
     <t>10, Muránská 1050, 841 10 Bratislava-Devín, Słowacja</t>
   </si>
   <si>
@@ -389,9 +380,6 @@
   </si>
   <si>
     <t>Zamek</t>
-  </si>
-  <si>
-    <t>Centrum handlowe</t>
   </si>
   <si>
     <t>Obiekt historyczny</t>
@@ -454,12 +442,6 @@
 An important feature of Bratislava Castle is the Crown Tower, one of the oldest parts of the castle, known for housing the crown jewels of Hungary during several periods in history.
 In 1811, a major fire damaged the structure and left it in ruins. The castle underwent a restoration phase in the 20th century, being rebuilt mostly in the 1950s and 1960s. Today, it houses collections of the Slovak National Museum, displaying historical exhibitions, including furniture, art, and artifacts that illustrate the history of Slovakia.
 Besides being a museum, the castle serves as a venue for cultural events and government ceremonies, and its hilltop position offers one of the best vantage points for viewing the city of Bratislava and the surrounding regions.</t>
-  </si>
-  <si>
-    <t>Rozległe centrum handlowe z prawie 200 sklepami, kilkoma strefami zabaw dla dzieci i licznymi restauracjami.Eurovea is a multifunctional complex located in Bratislava, the capital of Slovakia. It is situated on the banks of the Danube River near the city center, providing a scenic and accessible location for visitors and locals alike. The coordinates you provided, 48.1403215, 17.121313, pinpoint its location in the city.
-Opened in 2010, Eurovea serves as a modern urban space combining residential areas, office spaces, and a large shopping center. The shopping center is a key component of the complex and features a broad range of retail outlets, including international brands and local shops. It provides a variety of services from fashion and beauty stores to electronics and home goods.
-Eurovea also includes a significant entertainment component, with numerous restaurants, cafes, and bars, as well as a cinema and fitness center. This has made it a popular destination not only for shopping but also for leisure and socializing. The complex is designed with open spaces and includes a promenade along the river, which hosts various events and activities throughout the year.
-Given its modern architecture and emphasis on creating a blend of commercial, residential, and leisure spaces, Eurovea stands out as an important urban development in Bratislava. It has helped to revitalize the waterfront area, making it a lively district and contributing to the city's economic and cultural life.</t>
   </si>
   <si>
     <t>Częściowo zrekonstruowany średniowieczny zamek z widokiem na Dunaj i Morawę.Zamek Devín, or Devín Castle, is a historic castle located near Bratislava, the capital city of Slovakia. Positioned at the confluence of the Danube and Morava rivers, the site of Devín Castle holds strategic significance and offers panoramic views of the surrounding area, making it a crucial military and trade site throughout history.
@@ -625,12 +607,6 @@
 Besides being a museum, the castle serves as a venue for cultural events and government ceremonies, and its hilltop position offers one of the best vantage points for viewing the city of Bratislava and the surrounding regions.</t>
   </si>
   <si>
-    <t>Eurovea is a multifunctional complex located in Bratislava, the capital of Slovakia. It is situated on the banks of the Danube River near the city center, providing a scenic and accessible location for visitors and locals alike. The coordinates you provided, 48.1403215, 17.121313, pinpoint its location in the city.
-Opened in 2010, Eurovea serves as a modern urban space combining residential areas, office spaces, and a large shopping center. The shopping center is a key component of the complex and features a broad range of retail outlets, including international brands and local shops. It provides a variety of services from fashion and beauty stores to electronics and home goods.
-Eurovea also includes a significant entertainment component, with numerous restaurants, cafes, and bars, as well as a cinema and fitness center. This has made it a popular destination not only for shopping but also for leisure and socializing. The complex is designed with open spaces and includes a promenade along the river, which hosts various events and activities throughout the year.
-Given its modern architecture and emphasis on creating a blend of commercial, residential, and leisure spaces, Eurovea stands out as an important urban development in Bratislava. It has helped to revitalize the waterfront area, making it a lively district and contributing to the city's economic and cultural life.</t>
-  </si>
-  <si>
     <t>Zamek Devín, or Devín Castle, is a historic castle located near Bratislava, the capital city of Slovakia. Positioned at the confluence of the Danube and Morava rivers, the site of Devín Castle holds strategic significance and offers panoramic views of the surrounding area, making it a crucial military and trade site throughout history.
 The castle stands on a massive rocky hill and has been a site of human settlement and fortification since the late Stone Age. Its strategic location made it a central point in the region during the Roman Empire, which used it as a military outpost and boundary fortification on the Limes Romanus, marking the frontier of the Roman Empire.
 Throughout the centuries, Devín Castle played a crucial role in the history of Slovakia. The castle was part of the Great Moravian Empire, which was the first significant state formation in the area. It is believed that the castle witnessed significant historical events, including the baptism of St. Cyril and St. Methodius, the Byzantine missionaries who introduced Christianity and the Cyrillic script.
@@ -799,9 +775,6 @@
   </si>
   <si>
     <t>Zamek Bratysławski, usytuowany na wzniesieniu z widokiem na Dunaj, stanowi kluczowe miejsce zarówno ze względów strategicznych, jak i historycznych. Obiekt, którego początki sięgają epoki kamienia i brązu, przeszedł liczne przemiany, od rzymskiej fortyfikacji po barokowy pałac. Obecnie mieści kolekcje Słowackiego Muzeum Narodowego oraz służy jako przestrzeń na różnorodne wydarzenia kulturowe i ceremonie, oferując równocześnie jedne z najlepszych widoków na Bratysławę i okolice.</t>
-  </si>
-  <si>
-    <t>Eurovea, położony nad brzegami Dunaju, oferuje nie tylko zakupy, ale i kompleksowe doświadczenie miejskie. W centrum znajduje się niemal 200 sklepów, a także liczne restauracje i przestrzenie rekreacyjne, w tym place zabaw i kino. Architektura i rozplanowanie Eurovea sprzyjają zarówno codziennym zakupom, jak i weekendowym wypadom, czyniąc to miejsce pulsującym sercem kulturalnym i społecznym stolicy Słowacji.</t>
   </si>
   <si>
     <t>Brama Michalska to jedyna medievalna brama miasta, położona w historycznym centrum i datująca się na XIV wiek. Znana jako Michałska Brama, pełniła kluczową rolę w obronności miasta, a obecnie przyciąga jako muzeum broni oraz punkt widokowy oferujący panoramę Starego Miasta. Otoczona brukowanymi uliczkami i urokliwymi kawiarniami, stanowi tętniące życiem miejsce spotkań.</t>
@@ -1247,9 +1220,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1299,13 +1274,13 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E2">
         <v>48.1421086</v>
@@ -1314,7 +1289,7 @@
         <v>17.100234799999999</v>
       </c>
       <c r="G2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H2">
         <v>4.5</v>
@@ -1323,16 +1298,16 @@
         <v>50500</v>
       </c>
       <c r="J2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1343,37 +1318,37 @@
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E3">
-        <v>48.140321499999999</v>
+        <v>48.173843599999998</v>
       </c>
       <c r="F3">
-        <v>17.121313000000001</v>
+        <v>16.978585599999999</v>
       </c>
       <c r="G3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H3">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I3">
-        <v>22384</v>
+        <v>17060</v>
       </c>
       <c r="J3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M3" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1384,40 +1359,40 @@
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E4">
-        <v>48.173843599999998</v>
+        <v>48.145166799999998</v>
       </c>
       <c r="F4">
-        <v>16.978585599999999</v>
+        <v>17.106735</v>
       </c>
       <c r="G4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H4">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I4">
-        <v>17060</v>
+        <v>13153</v>
       </c>
       <c r="J4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1425,40 +1400,40 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5">
-        <v>48.145166799999998</v>
+        <v>48.148370999999997</v>
       </c>
       <c r="F5">
-        <v>17.106735</v>
+        <v>17.1123577</v>
       </c>
       <c r="G5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H5">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I5">
-        <v>13153</v>
+        <v>11955</v>
       </c>
       <c r="J5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>176</v>
+        <v>1</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="M5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1466,37 +1441,37 @@
         <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>48.148370999999997</v>
+        <v>48.142845600000001</v>
       </c>
       <c r="F6">
-        <v>17.1123577</v>
+        <v>17.1088877</v>
       </c>
       <c r="G6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H6">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I6">
-        <v>11955</v>
+        <v>9691</v>
       </c>
       <c r="J6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>177</v>
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>172</v>
       </c>
       <c r="M6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1507,37 +1482,37 @@
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E7">
-        <v>48.142845600000001</v>
+        <v>48.143312799999997</v>
       </c>
       <c r="F7">
-        <v>17.1088877</v>
+        <v>17.116736700000001</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H7">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I7">
-        <v>9691</v>
+        <v>9388</v>
       </c>
       <c r="J7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M7" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1548,37 +1523,37 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E8">
-        <v>48.143312799999997</v>
+        <v>48.1539365</v>
       </c>
       <c r="F8">
-        <v>17.116736700000001</v>
+        <v>17.099592099999999</v>
       </c>
       <c r="G8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H8">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="I8">
-        <v>9388</v>
+        <v>8229</v>
       </c>
       <c r="J8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1589,37 +1564,37 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E9">
-        <v>48.1539365</v>
+        <v>48.136816400000001</v>
       </c>
       <c r="F9">
-        <v>17.099592099999999</v>
+        <v>17.104616499999999</v>
       </c>
       <c r="G9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H9">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I9">
-        <v>8229</v>
+        <v>7921</v>
       </c>
       <c r="J9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="M9" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1630,37 +1605,37 @@
         <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E10">
-        <v>48.136816400000001</v>
+        <v>48.146111099999999</v>
       </c>
       <c r="F10">
-        <v>17.104616499999999</v>
+        <v>17.110277799999999</v>
       </c>
       <c r="G10" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H10">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I10">
-        <v>7921</v>
+        <v>7534</v>
       </c>
       <c r="J10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M10" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1671,37 +1646,37 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E11">
-        <v>48.146111099999999</v>
+        <v>48.142000699999997</v>
       </c>
       <c r="F11">
-        <v>17.110277799999999</v>
+        <v>17.1050149</v>
       </c>
       <c r="G11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H11">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I11">
-        <v>7534</v>
+        <v>6857</v>
       </c>
       <c r="J11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1712,37 +1687,37 @@
         <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E12">
-        <v>48.142000699999997</v>
+        <v>48.1459197</v>
       </c>
       <c r="F12">
-        <v>17.1050149</v>
+        <v>17.117710500000001</v>
       </c>
       <c r="G12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H12">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I12">
-        <v>6857</v>
+        <v>6459</v>
       </c>
       <c r="J12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M12" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1753,37 +1728,37 @@
         <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E13">
-        <v>48.1459197</v>
+        <v>48.153284499999998</v>
       </c>
       <c r="F13">
-        <v>17.117710500000001</v>
+        <v>17.137209200000001</v>
       </c>
       <c r="G13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H13">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="I13">
-        <v>6459</v>
+        <v>6099</v>
       </c>
       <c r="J13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M13" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1794,37 +1769,37 @@
         <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E14">
-        <v>48.153284499999998</v>
+        <v>48.141109399999998</v>
       </c>
       <c r="F14">
-        <v>17.137209200000001</v>
+        <v>17.123430200000001</v>
       </c>
       <c r="G14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H14">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="I14">
-        <v>6099</v>
+        <v>4944</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M14" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1835,37 +1810,37 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E15">
-        <v>48.141109399999998</v>
+        <v>48.143650999999998</v>
       </c>
       <c r="F15">
-        <v>17.123430200000001</v>
+        <v>17.111183</v>
       </c>
       <c r="G15" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H15">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="I15">
-        <v>4944</v>
+        <v>3965</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1876,37 +1851,37 @@
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E16">
-        <v>48.143650999999998</v>
+        <v>48.034277400000001</v>
       </c>
       <c r="F16">
-        <v>17.111183</v>
+        <v>17.232688700000001</v>
       </c>
       <c r="G16" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H16">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="I16">
-        <v>3965</v>
+        <v>3750</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1914,40 +1889,40 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E17">
-        <v>48.034277400000001</v>
+        <v>48.142328999999997</v>
       </c>
       <c r="F17">
-        <v>17.232688700000001</v>
+        <v>17.107468999999998</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="H17">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I17">
-        <v>3750</v>
+        <v>3559</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1955,40 +1930,40 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E18">
-        <v>48.142328999999997</v>
+        <v>48.150976900000003</v>
       </c>
       <c r="F18">
-        <v>17.107468999999998</v>
+        <v>17.109808000000001</v>
       </c>
       <c r="G18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H18">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="I18">
-        <v>3559</v>
+        <v>3239</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1996,40 +1971,40 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E19">
-        <v>48.150976900000003</v>
+        <v>48.143914500000001</v>
       </c>
       <c r="F19">
-        <v>17.109808000000001</v>
+        <v>17.1096556</v>
       </c>
       <c r="G19" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="H19">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I19">
-        <v>3239</v>
+        <v>3175</v>
       </c>
       <c r="J19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="M19" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -2037,40 +2012,40 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E20">
-        <v>48.143914500000001</v>
+        <v>48.1826322</v>
       </c>
       <c r="F20">
-        <v>17.1096556</v>
+        <v>17.094970700000001</v>
       </c>
       <c r="G20" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H20">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I20">
-        <v>3175</v>
+        <v>2882</v>
       </c>
       <c r="J20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M20" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -2078,40 +2053,40 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E21">
-        <v>48.1826322</v>
+        <v>48.149195900000002</v>
       </c>
       <c r="F21">
-        <v>17.094970700000001</v>
+        <v>17.107744700000001</v>
       </c>
       <c r="G21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H21">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I21">
-        <v>2882</v>
+        <v>2656</v>
       </c>
       <c r="J21" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M21" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -2119,40 +2094,40 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E22">
-        <v>48.149195900000002</v>
+        <v>48.144699299999999</v>
       </c>
       <c r="F22">
-        <v>17.107744700000001</v>
+        <v>17.111595300000001</v>
       </c>
       <c r="G22" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H22">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I22">
-        <v>2656</v>
+        <v>2569</v>
       </c>
       <c r="J22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M22" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -2160,40 +2135,40 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E23">
-        <v>48.144699299999999</v>
+        <v>48.145960000000002</v>
       </c>
       <c r="F23">
-        <v>17.111595300000001</v>
+        <v>17.119313999999999</v>
       </c>
       <c r="G23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H23">
         <v>4.5999999999999996</v>
       </c>
       <c r="I23">
-        <v>2569</v>
+        <v>2357</v>
       </c>
       <c r="J23" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M23" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -2201,40 +2176,40 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E24">
-        <v>48.145960000000002</v>
+        <v>48.177291399999987</v>
       </c>
       <c r="F24">
-        <v>17.119313999999999</v>
+        <v>17.074160500000001</v>
       </c>
       <c r="G24" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H24">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="I24">
         <v>2357</v>
       </c>
       <c r="J24" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M24" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -2242,40 +2217,40 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E25">
-        <v>48.177291399999987</v>
+        <v>48.138513699999997</v>
       </c>
       <c r="F25">
-        <v>17.074160500000001</v>
+        <v>17.117258100000001</v>
       </c>
       <c r="G25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H25">
         <v>4.7</v>
       </c>
       <c r="I25">
-        <v>2357</v>
+        <v>2112</v>
       </c>
       <c r="J25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M25" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -2283,40 +2258,40 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E26">
-        <v>48.138513699999997</v>
+        <v>48.1433702</v>
       </c>
       <c r="F26">
-        <v>17.117258100000001</v>
+        <v>17.108163399999999</v>
       </c>
       <c r="G26" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="H26">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I26">
-        <v>2112</v>
+        <v>1741</v>
       </c>
       <c r="J26" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M26" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -2324,40 +2299,40 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E27">
-        <v>48.1433702</v>
+        <v>48.142710899999997</v>
       </c>
       <c r="F27">
-        <v>17.108163399999999</v>
+        <v>17.1065869</v>
       </c>
       <c r="G27" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H27">
         <v>4.5</v>
       </c>
       <c r="I27">
-        <v>1741</v>
+        <v>1487</v>
       </c>
       <c r="J27" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M27" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -2365,40 +2340,40 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E28">
-        <v>48.142710899999997</v>
+        <v>48.1421469</v>
       </c>
       <c r="F28">
-        <v>17.1065869</v>
+        <v>17.108678300000001</v>
       </c>
       <c r="G28" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H28">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <v>1487</v>
+        <v>1468</v>
       </c>
       <c r="J28" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="M28" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -2406,40 +2381,40 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E29">
-        <v>48.1421469</v>
+        <v>48.141659099999998</v>
       </c>
       <c r="F29">
-        <v>17.108678300000001</v>
+        <v>17.103310700000002</v>
       </c>
       <c r="G29" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I29">
-        <v>1468</v>
+        <v>1344</v>
       </c>
       <c r="J29" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M29" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -2447,40 +2422,40 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E30">
-        <v>48.141659099999998</v>
+        <v>48.141964799999997</v>
       </c>
       <c r="F30">
-        <v>17.103310700000002</v>
+        <v>17.1000762</v>
       </c>
       <c r="G30" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="H30">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I30">
-        <v>1344</v>
+        <v>1212</v>
       </c>
       <c r="J30" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M30" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -2488,81 +2463,40 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E31">
-        <v>48.141964799999997</v>
+        <v>48.1489549</v>
       </c>
       <c r="F31">
-        <v>17.1000762</v>
+        <v>17.110625299999999</v>
       </c>
       <c r="G31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H31">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I31">
-        <v>1212</v>
+        <v>1069</v>
       </c>
       <c r="J31" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M31" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" t="s">
-        <v>121</v>
-      </c>
-      <c r="E32">
-        <v>48.1489549</v>
-      </c>
-      <c r="F32">
-        <v>17.110625299999999</v>
-      </c>
-      <c r="G32" t="s">
-        <v>141</v>
-      </c>
-      <c r="H32">
-        <v>4.5</v>
-      </c>
-      <c r="I32">
-        <v>1069</v>
-      </c>
-      <c r="J32" t="s">
-        <v>172</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32" t="s">
-        <v>203</v>
-      </c>
-      <c r="M32" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
